--- a/data-raw/Migrations/emi0614est.xlsx
+++ b/data-raw/Migrations/emi0614est.xlsx
@@ -1345,7 +1345,7 @@
   <dimension ref="A1:BU141"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
